--- a/docs/테스트 문서/동시성 기술 선택 근거 시나리오 테스트(진행 중)/Concurrency_Performance_Scripts/RaceConditionAnalzer_Scripts/results/reports/IF_ELSE/Server/StatisticalRoomAnalyzer.xlsx
+++ b/docs/테스트 문서/동시성 기술 선택 근거 시나리오 테스트(진행 중)/Concurrency_Performance_Scripts/RaceConditionAnalzer_Scripts/results/reports/IF_ELSE/Server/StatisticalRoomAnalyzer.xlsx
@@ -941,28 +941,28 @@
         <v>200</v>
       </c>
       <c r="C4" t="n">
-        <v>186</v>
+        <v>92</v>
       </c>
       <c r="D4" t="n">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="E4" t="n">
-        <v>1152</v>
+        <v>260</v>
       </c>
       <c r="F4" t="n">
-        <v>6.19</v>
+        <v>2.83</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7726</v>
+        <v>0.9902</v>
       </c>
     </row>
     <row r="5">
@@ -973,28 +973,28 @@
         <v>200</v>
       </c>
       <c r="C5" t="n">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="D5" t="n">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="E5" t="n">
-        <v>657</v>
+        <v>139</v>
       </c>
       <c r="F5" t="n">
-        <v>3.91</v>
+        <v>2.4</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>1.9325</v>
+        <v>0.6994</v>
       </c>
     </row>
     <row r="6">
@@ -1005,28 +1005,28 @@
         <v>200</v>
       </c>
       <c r="C6" t="n">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="D6" t="n">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="E6" t="n">
-        <v>888</v>
+        <v>159</v>
       </c>
       <c r="F6" t="n">
-        <v>4.93</v>
+        <v>2.56</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.2137</v>
+        <v>0.7601</v>
       </c>
     </row>
     <row r="7">
@@ -1037,28 +1037,28 @@
         <v>200</v>
       </c>
       <c r="C7" t="n">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="D7" t="n">
-        <v>89.5</v>
+        <v>53</v>
       </c>
       <c r="E7" t="n">
-        <v>847</v>
+        <v>282</v>
       </c>
       <c r="F7" t="n">
-        <v>4.73</v>
+        <v>2.66</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.0322</v>
+        <v>0.8606</v>
       </c>
     </row>
     <row r="8">
@@ -1069,28 +1069,28 @@
         <v>200</v>
       </c>
       <c r="C8" t="n">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="D8" t="n">
-        <v>95.5</v>
+        <v>44.5</v>
       </c>
       <c r="E8" t="n">
-        <v>1088</v>
+        <v>298</v>
       </c>
       <c r="F8" t="n">
-        <v>5.7</v>
+        <v>3.35</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.0335</v>
+        <v>2.2669</v>
       </c>
     </row>
     <row r="9">
@@ -1101,28 +1101,28 @@
         <v>200</v>
       </c>
       <c r="C9" t="n">
-        <v>182</v>
+        <v>67</v>
       </c>
       <c r="D9" t="n">
-        <v>91</v>
+        <v>33.5</v>
       </c>
       <c r="E9" t="n">
-        <v>908</v>
+        <v>164</v>
       </c>
       <c r="F9" t="n">
-        <v>4.99</v>
+        <v>2.45</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.274</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="10">
@@ -1133,28 +1133,28 @@
         <v>200</v>
       </c>
       <c r="C10" t="n">
-        <v>190</v>
+        <v>86</v>
       </c>
       <c r="D10" t="n">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="E10" t="n">
-        <v>1009</v>
+        <v>245</v>
       </c>
       <c r="F10" t="n">
-        <v>5.31</v>
+        <v>2.85</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.2071</v>
+        <v>1.0574</v>
       </c>
     </row>
     <row r="11">
@@ -1165,28 +1165,28 @@
         <v>200</v>
       </c>
       <c r="C11" t="n">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="D11" t="n">
-        <v>95.5</v>
+        <v>38</v>
       </c>
       <c r="E11" t="n">
-        <v>979</v>
+        <v>170</v>
       </c>
       <c r="F11" t="n">
-        <v>5.13</v>
+        <v>2.24</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.9828</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="12">
@@ -1197,28 +1197,28 @@
         <v>200</v>
       </c>
       <c r="C12" t="n">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="D12" t="n">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="E12" t="n">
-        <v>918</v>
+        <v>207</v>
       </c>
       <c r="F12" t="n">
-        <v>4.88</v>
+        <v>2.52</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.2437</v>
+        <v>0.7892</v>
       </c>
     </row>
     <row r="13">
@@ -1229,28 +1229,28 @@
         <v>200</v>
       </c>
       <c r="C13" t="n">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="D13" t="n">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E13" t="n">
-        <v>1172</v>
+        <v>341</v>
       </c>
       <c r="F13" t="n">
-        <v>6.37</v>
+        <v>2.94</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8417</v>
+        <v>1.2669</v>
       </c>
     </row>
   </sheetData>
@@ -1543,13 +1543,13 @@
         <v>200</v>
       </c>
       <c r="C10" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>50.5</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -1761,28 +1761,28 @@
         <v>200</v>
       </c>
       <c r="C4" t="n">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>69.5</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>5213</v>
+        <v>62</v>
       </c>
       <c r="F4" t="n">
-        <v>37.5</v>
+        <v>1.63</v>
       </c>
       <c r="G4" t="n">
-        <v>-101</v>
+        <v>-2</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>-32</v>
+        <v>-1</v>
       </c>
       <c r="J4" t="n">
-        <v>33.8151</v>
+        <v>1.8744</v>
       </c>
     </row>
     <row r="5">
@@ -1793,28 +1793,28 @@
         <v>200</v>
       </c>
       <c r="C5" t="n">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>55</v>
+        <v>4.5</v>
       </c>
       <c r="E5" t="n">
-        <v>5163</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
-        <v>46.94</v>
+        <v>1.33</v>
       </c>
       <c r="G5" t="n">
-        <v>-101</v>
+        <v>-2</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>-46.5</v>
+        <v>-1</v>
       </c>
       <c r="J5" t="n">
-        <v>31.3845</v>
+        <v>1.5811</v>
       </c>
     </row>
     <row r="6">
@@ -1825,28 +1825,28 @@
         <v>200</v>
       </c>
       <c r="C6" t="n">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>55</v>
+        <v>4.5</v>
       </c>
       <c r="E6" t="n">
-        <v>5161</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>46.92</v>
+        <v>1.11</v>
       </c>
       <c r="G6" t="n">
-        <v>-101</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>-46.5</v>
+        <v>-1</v>
       </c>
       <c r="J6" t="n">
-        <v>31.3834</v>
+        <v>1.2247</v>
       </c>
     </row>
     <row r="7">
@@ -1857,28 +1857,28 @@
         <v>200</v>
       </c>
       <c r="C7" t="n">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>59</v>
+        <v>8.5</v>
       </c>
       <c r="E7" t="n">
-        <v>5173</v>
+        <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>43.84</v>
+        <v>1.29</v>
       </c>
       <c r="G7" t="n">
-        <v>-101</v>
+        <v>-2</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>-42.5</v>
+        <v>-1</v>
       </c>
       <c r="J7" t="n">
-        <v>32.5202</v>
+        <v>1.5411</v>
       </c>
     </row>
     <row r="8">
@@ -1889,28 +1889,28 @@
         <v>200</v>
       </c>
       <c r="C8" t="n">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>58.5</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>5171</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>44.2</v>
+        <v>1.25</v>
       </c>
       <c r="G8" t="n">
-        <v>-101</v>
+        <v>-2</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>-43</v>
+        <v>-1</v>
       </c>
       <c r="J8" t="n">
-        <v>32.4044</v>
+        <v>1.4142</v>
       </c>
     </row>
     <row r="9">
@@ -1921,28 +1921,28 @@
         <v>200</v>
       </c>
       <c r="C9" t="n">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>57</v>
+        <v>6.5</v>
       </c>
       <c r="E9" t="n">
-        <v>5165</v>
+        <v>14</v>
       </c>
       <c r="F9" t="n">
-        <v>45.31</v>
+        <v>1.08</v>
       </c>
       <c r="G9" t="n">
-        <v>-101</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>-44.5</v>
+        <v>-1</v>
       </c>
       <c r="J9" t="n">
-        <v>32.0154</v>
+        <v>1.1547</v>
       </c>
     </row>
     <row r="10">
@@ -1953,28 +1953,28 @@
         <v>200</v>
       </c>
       <c r="C10" t="n">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>62.5</v>
+        <v>12.5</v>
       </c>
       <c r="E10" t="n">
-        <v>5086</v>
+        <v>36</v>
       </c>
       <c r="F10" t="n">
-        <v>40.69</v>
+        <v>1.44</v>
       </c>
       <c r="G10" t="n">
-        <v>-100</v>
+        <v>-2</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>-38</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>32.921</v>
+        <v>1.5811</v>
       </c>
     </row>
     <row r="11">
@@ -1985,28 +1985,28 @@
         <v>200</v>
       </c>
       <c r="C11" t="n">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>57.5</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>5165</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>44.91</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>-101</v>
+        <v>-1</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>32.1516</v>
+        <v>1.0377</v>
       </c>
     </row>
     <row r="12">
@@ -2017,28 +2017,28 @@
         <v>200</v>
       </c>
       <c r="C12" t="n">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>62</v>
+        <v>11.5</v>
       </c>
       <c r="E12" t="n">
-        <v>5181</v>
+        <v>30</v>
       </c>
       <c r="F12" t="n">
-        <v>41.78</v>
+        <v>1.3</v>
       </c>
       <c r="G12" t="n">
-        <v>-101</v>
+        <v>-3</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>-39.5</v>
+        <v>-1</v>
       </c>
       <c r="J12" t="n">
-        <v>33.0834</v>
+        <v>1.4771</v>
       </c>
     </row>
     <row r="13">
@@ -2049,28 +2049,28 @@
         <v>200</v>
       </c>
       <c r="C13" t="n">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>9.5</v>
       </c>
       <c r="E13" t="n">
-        <v>5173</v>
+        <v>22</v>
       </c>
       <c r="F13" t="n">
-        <v>43.11</v>
+        <v>1.16</v>
       </c>
       <c r="G13" t="n">
-        <v>-101</v>
+        <v>-1</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>-41.5</v>
+        <v>-1</v>
       </c>
       <c r="J13" t="n">
-        <v>32.7291</v>
+        <v>1.2472</v>
       </c>
     </row>
   </sheetData>
